--- a/AI_CrossBrowsers/Default.xlsx
+++ b/AI_CrossBrowsers/Default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Browser</t>
   </si>
@@ -32,7 +32,13 @@
     <t>IE</t>
   </si>
   <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
     <t>device_ostype</t>
+  </si>
+  <si>
+    <t>Mi A1</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -546,7 +552,7 @@
         <v>1</v>
       </c>
       <c t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row>
@@ -555,7 +561,9 @@
       </c>
       <c s="1"/>
       <c s="1"/>
-      <c s="3"/>
+      <c s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row>
       <c s="1" t="s">
@@ -563,13 +571,19 @@
       </c>
       <c s="1"/>
       <c s="1"/>
-      <c s="3"/>
+      <c s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row>
       <c s="1"/>
+      <c s="1" t="s">
+        <v>7</v>
+      </c>
       <c s="1"/>
-      <c s="1"/>
-      <c s="3"/>
+      <c s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI_CrossBrowsers/Default.xlsx
+++ b/AI_CrossBrowsers/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="DataDriven" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -242,10 +242,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="283845"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>

--- a/AI_CrossBrowsers/Default.xlsx
+++ b/AI_CrossBrowsers/Default.xlsx
@@ -242,10 +242,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="283845"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
